--- a/Team-Data/2011-12/3-23-2011-12.xlsx
+++ b/Team-Data/2011-12/3-23-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.583</v>
+        <v>0.574</v>
       </c>
       <c r="H2" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I2" t="n">
         <v>35.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L2" t="n">
         <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
         <v>14.8</v>
@@ -705,10 +772,10 @@
         <v>20.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R2" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="S2" t="n">
         <v>30.9</v>
@@ -717,13 +784,13 @@
         <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V2" t="n">
         <v>14.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
@@ -741,10 +808,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
@@ -759,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -786,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="AR2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AS2" t="n">
         <v>14</v>
@@ -795,22 +862,22 @@
         <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
         <v>21</v>
@@ -819,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
         <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>0.532</v>
+        <v>0.543</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,31 +933,31 @@
         <v>35.1</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L3" t="n">
         <v>5.6</v>
       </c>
       <c r="M3" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O3" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P3" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q3" t="n">
         <v>0.775</v>
       </c>
       <c r="R3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S3" t="n">
         <v>30.2</v>
@@ -899,13 +966,13 @@
         <v>38.3</v>
       </c>
       <c r="U3" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X3" t="n">
         <v>5.7</v>
@@ -914,31 +981,31 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH3" t="n">
         <v>16</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -947,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
@@ -965,13 +1032,13 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -983,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX3" t="n">
         <v>6</v>
@@ -992,16 +1059,16 @@
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
-        <v>0.156</v>
+        <v>0.159</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
@@ -1048,7 +1115,7 @@
         <v>33.4</v>
       </c>
       <c r="J4" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.416</v>
@@ -1057,34 +1124,34 @@
         <v>4.1</v>
       </c>
       <c r="M4" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.301</v>
+        <v>0.304</v>
       </c>
       <c r="O4" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P4" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.749</v>
+        <v>0.746</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
         <v>29</v>
       </c>
       <c r="T4" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
@@ -1102,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.40000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.2</v>
+        <v>-13.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1141,19 +1208,19 @@
         <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1162,16 +1229,16 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
         <v>5</v>
@@ -1323,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1335,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -1394,64 +1461,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.378</v>
+        <v>0.386</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="J6" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.355</v>
+        <v>0.358</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.703</v>
+        <v>0.704</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T6" t="n">
         <v>43</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
         <v>4.3</v>
@@ -1460,19 +1527,19 @@
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.7</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1484,31 +1551,31 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
         <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1523,7 +1590,7 @@
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
         <v>19</v>
@@ -1532,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1544,10 +1611,10 @@
         <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
         <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.551</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J7" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="O7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R7" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U7" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X7" t="n">
         <v>5.1</v>
@@ -1642,40 +1709,40 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AA7" t="n">
         <v>18.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1690,34 +1757,34 @@
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ7" t="n">
         <v>10</v>
@@ -1726,10 +1793,10 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -1758,31 +1825,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.542</v>
+        <v>0.553</v>
       </c>
       <c r="H8" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.469</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
         <v>20.5</v>
@@ -1794,25 +1861,25 @@
         <v>20.6</v>
       </c>
       <c r="P8" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U8" t="n">
         <v>23.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.5</v>
@@ -1824,28 +1891,28 @@
         <v>6.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB8" t="n">
         <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG8" t="n">
         <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1863,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN8" t="n">
         <v>23</v>
@@ -1875,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>0.34</v>
+        <v>0.348</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J9" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P9" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.761</v>
+        <v>0.765</v>
       </c>
       <c r="R9" t="n">
         <v>11.8</v>
@@ -1994,7 +2061,7 @@
         <v>19</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W9" t="n">
         <v>6.9</v>
@@ -2009,28 +2076,28 @@
         <v>19.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.40000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>25</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2039,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2051,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>14</v>
@@ -2075,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2090,10 +2157,10 @@
         <v>17</v>
       </c>
       <c r="BB9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -2200,28 +2267,28 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2233,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP10" t="n">
         <v>28</v>
@@ -2254,25 +2321,25 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX10" t="n">
         <v>8</v>
       </c>
-      <c r="AX10" t="n">
-        <v>7</v>
-      </c>
       <c r="AY10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -2382,22 +2449,22 @@
         <v>0.6</v>
       </c>
       <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI11" t="n">
         <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>6</v>
@@ -2406,13 +2473,13 @@
         <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
         <v>16</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>20</v>
@@ -2427,7 +2494,7 @@
         <v>13</v>
       </c>
       <c r="AS11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT11" t="n">
         <v>17</v>
@@ -2448,16 +2515,16 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="n">
         <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.587</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J12" t="n">
         <v>80.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
       <c r="L12" t="n">
         <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.359</v>
       </c>
       <c r="O12" t="n">
         <v>20.2</v>
@@ -2525,7 +2592,7 @@
         <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
@@ -2534,16 +2601,16 @@
         <v>31</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="V12" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X12" t="n">
         <v>5.3</v>
@@ -2552,34 +2619,34 @@
         <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA12" t="n">
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="n">
         <v>20</v>
@@ -2588,28 +2655,28 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR12" t="n">
         <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
         <v>8</v>
@@ -2618,28 +2685,28 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
         <v>6</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>10</v>
@@ -2779,7 +2846,7 @@
         <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
         <v>10</v>
@@ -2788,16 +2855,16 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
         <v>22</v>
       </c>
       <c r="AT13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>2</v>
@@ -2821,7 +2888,7 @@
         <v>14</v>
       </c>
       <c r="BC13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.625</v>
+        <v>0.617</v>
       </c>
       <c r="H14" t="n">
         <v>48.6</v>
       </c>
       <c r="I14" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J14" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.457</v>
@@ -2889,19 +2956,19 @@
         <v>23.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R14" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S14" t="n">
         <v>34.2</v>
       </c>
       <c r="T14" t="n">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="U14" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="V14" t="n">
         <v>15.3</v>
@@ -2916,19 +2983,19 @@
         <v>4</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AA14" t="n">
         <v>20.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC14" t="n">
         <v>2.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2946,13 +3013,13 @@
         <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM14" t="n">
         <v>18</v>
@@ -2964,13 +3031,13 @@
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>21</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
         <v>11</v>
@@ -3003,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="BC14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -3122,10 +3189,10 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
@@ -3149,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
@@ -3170,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
@@ -3182,10 +3249,10 @@
         <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.761</v>
+        <v>0.756</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J16" t="n">
         <v>79.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.481</v>
+        <v>0.482</v>
       </c>
       <c r="L16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M16" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.381</v>
+        <v>0.388</v>
       </c>
       <c r="O16" t="n">
         <v>19.6</v>
       </c>
       <c r="P16" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
         <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
         <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA16" t="n">
         <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,10 +3374,10 @@
         <v>3</v>
       </c>
       <c r="AI16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3331,16 +3398,16 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU16" t="n">
         <v>14</v>
@@ -3349,16 +3416,16 @@
         <v>17</v>
       </c>
       <c r="AW16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
         <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
         <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.468</v>
+        <v>0.457</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="J17" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.437</v>
+        <v>0.434</v>
       </c>
       <c r="L17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N17" t="n">
         <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P17" t="n">
         <v>21</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.79</v>
+        <v>0.795</v>
       </c>
       <c r="R17" t="n">
         <v>12.8</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T17" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U17" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V17" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.9</v>
@@ -3465,28 +3532,28 @@
         <v>19.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>9</v>
@@ -3495,31 +3562,31 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN17" t="n">
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT17" t="n">
         <v>19</v>
@@ -3528,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="n">
         <v>12</v>
@@ -3543,10 +3610,10 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -3578,43 +3645,43 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
         <v>23</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.469</v>
+        <v>0.479</v>
       </c>
       <c r="H18" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="J18" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="O18" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P18" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.769</v>
@@ -3629,7 +3696,7 @@
         <v>44.6</v>
       </c>
       <c r="U18" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V18" t="n">
         <v>15.6</v>
@@ -3644,46 +3711,46 @@
         <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN18" t="n">
         <v>18</v>
@@ -3692,16 +3759,16 @@
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS18" t="n">
         <v>7</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>8</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3731,7 +3798,7 @@
         <v>5</v>
       </c>
       <c r="BC18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="n">
-        <v>0.306</v>
+        <v>0.313</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3784,13 +3851,13 @@
         <v>0.424</v>
       </c>
       <c r="L19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M19" t="n">
         <v>23.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O19" t="n">
         <v>17</v>
@@ -3799,31 +3866,31 @@
         <v>22</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R19" t="n">
         <v>11.9</v>
       </c>
       <c r="S19" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="T19" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U19" t="n">
         <v>19.4</v>
       </c>
       <c r="V19" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W19" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X19" t="n">
         <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z19" t="n">
         <v>19.6</v>
@@ -3832,16 +3899,16 @@
         <v>19.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>-6.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
@@ -3868,10 +3935,10 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
         <v>17</v>
@@ -3889,10 +3956,10 @@
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>19</v>
@@ -3901,10 +3968,10 @@
         <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4035,10 +4102,10 @@
         <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
         <v>15</v>
@@ -4053,7 +4120,7 @@
         <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
@@ -4062,22 +4129,22 @@
         <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS20" t="n">
         <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX20" t="n">
         <v>19</v>
@@ -4086,7 +4153,7 @@
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="n">
         <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>0.479</v>
+        <v>0.489</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J21" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M21" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.316</v>
+        <v>0.32</v>
       </c>
       <c r="O21" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P21" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="R21" t="n">
         <v>11.4</v>
@@ -4178,13 +4245,13 @@
         <v>20</v>
       </c>
       <c r="V21" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y21" t="n">
         <v>5.1</v>
@@ -4193,28 +4260,28 @@
         <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH21" t="n">
         <v>18</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,10 +4290,10 @@
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM21" t="n">
         <v>4</v>
@@ -4238,13 +4305,13 @@
         <v>6</v>
       </c>
       <c r="AP21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>15</v>
@@ -4262,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY21" t="n">
         <v>20</v>
@@ -4274,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="J22" t="n">
-        <v>78.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P22" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.797</v>
+        <v>0.794</v>
       </c>
       <c r="R22" t="n">
         <v>10.8</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U22" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="V22" t="n">
         <v>16.6</v>
       </c>
       <c r="W22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>7.9</v>
@@ -4372,19 +4439,19 @@
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC22" t="n">
         <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,13 +4463,13 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
         <v>2</v>
@@ -4411,10 +4478,10 @@
         <v>8</v>
       </c>
       <c r="AM22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4423,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>20</v>
@@ -4432,10 +4499,10 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4450,7 +4517,7 @@
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.633</v>
+        <v>0.625</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J23" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O23" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P23" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.643</v>
+        <v>0.644</v>
       </c>
       <c r="R23" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S23" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U23" t="n">
         <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4.3</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>4.2</v>
       </c>
       <c r="Z23" t="n">
         <v>17.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB23" t="n">
         <v>93.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4596,28 +4663,28 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS23" t="n">
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
         <v>25</v>
@@ -4629,10 +4696,10 @@
         <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4641,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="n">
         <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K24" t="n">
         <v>0.449</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M24" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O24" t="n">
         <v>13.3</v>
@@ -4709,22 +4776,22 @@
         <v>18.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R24" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S24" t="n">
         <v>32.9</v>
       </c>
       <c r="T24" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U24" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="W24" t="n">
         <v>8.4</v>
@@ -4736,34 +4803,34 @@
         <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AA24" t="n">
         <v>16.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
         <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
         <v>3</v>
@@ -4787,16 +4854,16 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU24" t="n">
         <v>8</v>
@@ -4808,13 +4875,13 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.489</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
@@ -4873,7 +4940,7 @@
         <v>81.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L25" t="n">
         <v>6.6</v>
@@ -4882,28 +4949,28 @@
         <v>19.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O25" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P25" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U25" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V25" t="n">
         <v>14.4</v>
@@ -4912,25 +4979,25 @@
         <v>6.9</v>
       </c>
       <c r="X25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z25" t="n">
         <v>18.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.7</v>
+        <v>96.3</v>
       </c>
       <c r="AC25" t="n">
         <v>-1</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4945,7 +5012,7 @@
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
         <v>15</v>
@@ -4960,46 +5027,46 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>14</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT25" t="n">
         <v>20</v>
       </c>
       <c r="AU25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV25" t="n">
         <v>12</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
         <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.458</v>
+        <v>0.468</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5058,37 +5125,37 @@
         <v>0.444</v>
       </c>
       <c r="L26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M26" t="n">
         <v>20.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="O26" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P26" t="n">
         <v>22.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="R26" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W26" t="n">
         <v>8.300000000000001</v>
@@ -5103,25 +5170,25 @@
         <v>19.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB26" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
       </c>
       <c r="AF26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG26" t="n">
         <v>20</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>21</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
@@ -5139,7 +5206,7 @@
         <v>14</v>
       </c>
       <c r="AM26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN26" t="n">
         <v>19</v>
@@ -5151,28 +5218,28 @@
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV26" t="n">
         <v>13</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
         <v>9</v>
@@ -5181,13 +5248,13 @@
         <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB26" t="n">
         <v>13</v>
       </c>
       <c r="BC26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
@@ -5321,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5333,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5342,7 +5409,7 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
@@ -5351,7 +5418,7 @@
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5369,7 +5436,7 @@
         <v>10</v>
       </c>
       <c r="BC27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
         <v>0.467</v>
@@ -5425,31 +5492,31 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
       <c r="O28" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T28" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U28" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V28" t="n">
         <v>13.4</v>
@@ -5458,7 +5525,7 @@
         <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y28" t="n">
         <v>5</v>
@@ -5467,16 +5534,16 @@
         <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5503,31 +5570,31 @@
         <v>2</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
         <v>27</v>
       </c>
       <c r="AR28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
@@ -5536,16 +5603,16 @@
         <v>25</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.333</v>
+        <v>0.319</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,19 +5665,19 @@
         <v>34.4</v>
       </c>
       <c r="J29" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L29" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M29" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.327</v>
+        <v>0.331</v>
       </c>
       <c r="O29" t="n">
         <v>16.6</v>
@@ -5619,22 +5686,22 @@
         <v>21.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R29" t="n">
         <v>10.2</v>
       </c>
       <c r="S29" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T29" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U29" t="n">
         <v>21.1</v>
       </c>
       <c r="V29" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
@@ -5649,19 +5716,19 @@
         <v>24.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.9</v>
+        <v>-4.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
@@ -5676,13 +5743,13 @@
         <v>27</v>
       </c>
       <c r="AJ29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
@@ -5691,28 +5758,28 @@
         <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT29" t="n">
         <v>25</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>13</v>
       </c>
       <c r="AV29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW29" t="n">
         <v>24</v>
@@ -5727,13 +5794,13 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.542</v>
+        <v>0.532</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="J30" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.458</v>
+        <v>0.455</v>
       </c>
       <c r="L30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.308</v>
+        <v>0.304</v>
       </c>
       <c r="O30" t="n">
         <v>18.2</v>
       </c>
       <c r="P30" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.749</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
         <v>12.7</v>
@@ -5810,10 +5877,10 @@
         <v>30.4</v>
       </c>
       <c r="T30" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U30" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V30" t="n">
         <v>14</v>
@@ -5822,7 +5889,7 @@
         <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
@@ -5831,37 +5898,37 @@
         <v>21.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ30" t="n">
         <v>4</v>
       </c>
       <c r="AK30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5873,34 +5940,34 @@
         <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP30" t="n">
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW30" t="n">
         <v>7</v>
       </c>
-      <c r="AW30" t="n">
-        <v>6</v>
-      </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
@@ -5909,13 +5976,13 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6043,7 +6110,7 @@
         <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6073,13 +6140,13 @@
         <v>21</v>
       </c>
       <c r="AU31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV31" t="n">
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6091,7 +6158,7 @@
         <v>25</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-23-2011-12</t>
+          <t>2012-03-23</t>
         </is>
       </c>
     </row>
